--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Fall.112119.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Fall.112119.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3363,12 +3363,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3477,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3819,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4503,12 +4503,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4617,12 +4617,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4731,12 +4731,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5035,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5073,12 +5073,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5529,12 +5529,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5681,12 +5681,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5795,12 +5795,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5833,12 +5833,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6705,12 +6705,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6819,12 +6819,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6857,12 +6857,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6895,12 +6895,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7047,12 +7047,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7085,12 +7085,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7123,12 +7123,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7465,12 +7465,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7655,12 +7655,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8043,12 +8043,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8355,12 +8355,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8431,12 +8431,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9081,12 +9081,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9347,12 +9347,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9841,12 +9841,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10189,12 +10189,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10307,12 +10307,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10383,12 +10383,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10421,12 +10421,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10535,12 +10535,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10611,12 +10611,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10917,12 +10917,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10993,12 +10993,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11183,12 +11183,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11297,12 +11297,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11525,12 +11525,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12137,12 +12137,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12175,12 +12175,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12403,12 +12403,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12707,12 +12707,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12897,12 +12897,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13125,12 +13125,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13353,12 +13353,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13467,12 +13467,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14151,12 +14151,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14231,12 +14231,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14539,12 +14539,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14691,12 +14691,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14923,12 +14923,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14961,12 +14961,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15151,12 +15151,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15615,12 +15615,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15767,12 +15767,12 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15847,12 +15847,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16341,12 +16341,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16451,12 +16451,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16645,12 +16645,12 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16991,12 +16991,12 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17067,12 +17067,12 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17105,12 +17105,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17717,12 +17717,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17869,12 +17869,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18021,12 +18021,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18059,12 +18059,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18097,12 +18097,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18249,12 +18249,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18325,12 +18325,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18363,12 +18363,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18439,12 +18439,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18477,12 +18477,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18591,12 +18591,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18743,12 +18743,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19123,12 +19123,12 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19313,12 +19313,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19389,12 +19389,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20199,12 +20199,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21077,12 +21077,12 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21465,12 +21465,12 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21503,12 +21503,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21541,12 +21541,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21655,12 +21655,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
@@ -21769,12 +21769,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22191,12 +22191,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22571,12 +22571,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22727,12 +22727,12 @@
       <c r="H584" t="inlineStr"/>
       <c r="I584" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22803,12 +22803,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23115,12 +23115,12 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23423,12 +23423,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23917,12 +23917,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
